--- a/data/SPA52/Ratios.xlsx
+++ b/data/SPA52/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,66 +505,72 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>7184</v>
+      </c>
+      <c r="B2" s="1">
         <v>20.66079729466242</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.0002545466792697158</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.008270775166866178</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>0.05332327527323626</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.007184258193929666</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.003091345528067658</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>1.950664939552197</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.001823979308634662</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="1">
         <v>1.823830167761846</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="1">
         <v>0.06077336643057352</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="1">
         <v>0.007735731905824363</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <v>0.02493940003813321</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <v>5.610440819129803E-05</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="1">
         <v>0.02493940003813321</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="1">
         <v>0.897637060805016</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="1">
         <v>0.02428970758982</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="1">
         <v>0.008445232741996</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1">
         <v>0.01639723226693669</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="1">
         <v>0.00758171341372302</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="1">
         <v>0.0194629751200616</v>
       </c>
     </row>

--- a/data/SPA52/Ratios.xlsx
+++ b/data/SPA52/Ratios.xlsx
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,7 +126,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +444,11 @@
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" customWidth="1"/>
     <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,10 +522,10 @@
         <v>7184</v>
       </c>
       <c r="B2" s="1">
-        <v>20.66079729466242</v>
+        <v>20.68661241378678</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0002545466792697158</v>
+        <v>0.0002463900254958573</v>
       </c>
       <c r="D2" s="1">
         <v>0.008270775166866178</v>
@@ -544,22 +552,22 @@
         <v>0.06077336643057352</v>
       </c>
       <c r="L2" s="1">
-        <v>0.007735731905824363</v>
+        <v>0.007735927562247333</v>
       </c>
       <c r="M2" s="1">
-        <v>0.02493940003813321</v>
+        <v>0.02413963527092578</v>
       </c>
       <c r="N2" s="1">
-        <v>5.610440819129803E-05</v>
+        <v>5.610582721511544E-05</v>
       </c>
       <c r="O2" s="1">
-        <v>0.02493940003813321</v>
+        <v>0.02413963527092591</v>
       </c>
       <c r="P2" s="1">
-        <v>0.897637060805016</v>
+        <v>0.8976350672002722</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.02428970758982</v>
+        <v>0.02428976118378075</v>
       </c>
       <c r="R2" s="1">
         <v>0.008445232741996</v>
@@ -568,10 +576,10 @@
         <v>0.01639723226693669</v>
       </c>
       <c r="T2" s="1">
-        <v>0.00758171341372302</v>
+        <v>0.007581696582783478</v>
       </c>
       <c r="U2" s="1">
-        <v>0.0194629751200616</v>
+        <v>0.01946301336475804</v>
       </c>
     </row>
   </sheetData>

--- a/data/SPA52/Ratios.xlsx
+++ b/data/SPA52/Ratios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Lab. #</t>
   </si>
@@ -77,19 +77,29 @@
   </si>
   <si>
     <t>Error (%) 230/232</t>
+  </si>
+  <si>
+    <t>7184</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -112,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,13 +130,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,141 +467,141 @@
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>7184</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
         <v>20.68661241378678</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.0002463900254958573</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.008270775166866178</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.05332327527323626</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.007184258193929666</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.003091345528067658</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>1.950664939552197</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.001823979308634662</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1.823830167761846</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.06077336643057352</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.007735927562247333</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.02413963527092578</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>5.610582721511544E-05</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>0.02413963527092591</v>
       </c>
-      <c r="P2" s="1">
-        <v>0.8976350672002722</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.02428976118378075</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.008445232741996</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.01639723226693669</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.007581696582783478</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.01946301336475804</v>
+      <c r="P2" s="2">
+        <v>0.8971924225193564</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.02427040661230292</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.008449430718718214</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.01636608907178045</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.007581696240358551</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.01946301556603158</v>
       </c>
     </row>
   </sheetData>
